--- a/versuchsprotokoll.xlsx
+++ b/versuchsprotokoll.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baer-\Documents\Studium\Wechsel zu STATISTIK\4. Semester_SoSe 2022\Grundlagen Versuchsplanung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baer-\Documents\GitHub\Ergebnisse-Zeitschaetzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675B920-3FF2-478E-ACEB-437126A00E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48041E5C-F98B-4397-A399-2882F37680F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="174" xr2:uid="{4EFD4BEB-1FCD-48D2-9C94-0348CDD09A56}"/>
   </bookViews>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E451E3-705B-426B-B1A2-5FF01977BEB2}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1352,7 +1352,7 @@
         <v>44711.6875</v>
       </c>
       <c r="F14" s="44">
-        <v>44711.770833333336</v>
+        <v>44704.767361111109</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>19</v>
